--- a/POC/storage/invoices/INV_10001.xlsx
+++ b/POC/storage/invoices/INV_10001.xlsx
@@ -43,13 +43,13 @@
     <t>Invoice Date:</t>
   </si>
   <si>
-    <t>3/13/2025</t>
+    <t>3/14/2025</t>
   </si>
   <si>
     <t>Due Date:</t>
   </si>
   <si>
-    <t>4/12/2025</t>
+    <t>4/13/2025</t>
   </si>
   <si>
     <t>BILL TO:</t>
